--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -740,11 +740,74 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -817,69 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,6 +999,91 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>453957</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48639</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166181</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>77011</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="834957" y="705256"/>
+          <a:ext cx="2638628" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>(02)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t> 8876-3456 loc. 7403</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1294,8 +1379,8 @@
   </sheetPr>
   <dimension ref="A1:L844"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,11 +1517,11 @@
       <c r="I11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1444,21 +1529,21 @@
         <v>4</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
       <c r="I12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
     </row>
     <row r="13" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
@@ -1475,62 +1560,62 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="104" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
     </row>
     <row r="15" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="118" t="s">
+      <c r="A15" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="119" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="99"/>
     </row>
     <row r="16" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="106"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
     </row>
     <row r="17" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="118"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
@@ -1543,10 +1628,10 @@
       <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="118"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
@@ -1559,10 +1644,10 @@
       <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="117"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
       <c r="E19" s="73"/>
@@ -1591,20 +1676,20 @@
       <c r="L20" s="77"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
@@ -1801,16 +1886,16 @@
       <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="116">
+      <c r="B33" s="93"/>
+      <c r="C33" s="94">
         <v>158400</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="50"/>
       <c r="H33" s="50"/>
       <c r="I33" s="51"/>
@@ -1819,12 +1904,12 @@
       <c r="L33" s="52"/>
     </row>
     <row r="34" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="53"/>
       <c r="H34" s="53"/>
       <c r="I34" s="30"/>
@@ -1833,12 +1918,12 @@
       <c r="L34" s="54"/>
     </row>
     <row r="35" spans="1:12" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="55"/>
       <c r="H35" s="55"/>
       <c r="I35" s="14" t="s">
@@ -1849,160 +1934,160 @@
       <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="56"/>
-      <c r="H36" s="78" t="s">
+      <c r="H36" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
       <c r="L36" s="57"/>
     </row>
     <row r="37" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="112"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-      <c r="L37" s="114"/>
+      <c r="A37" s="89"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="91"/>
     </row>
     <row r="38" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="80" t="s">
+      <c r="C38" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="88"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="109"/>
     </row>
     <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="85" t="s">
+      <c r="A39" s="93"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="86"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="84" t="s">
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="84"/>
-      <c r="K39" s="90" t="s">
+      <c r="J39" s="105"/>
+      <c r="K39" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="L39" s="91"/>
+      <c r="L39" s="112"/>
     </row>
     <row r="40" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="93"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="114"/>
     </row>
     <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="93"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="114"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="93"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="114"/>
     </row>
     <row r="43" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="96" t="s">
+      <c r="A43" s="93"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="G43" s="98" t="s">
+      <c r="G43" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="100" t="s">
+      <c r="H43" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="102" t="s">
+      <c r="I43" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="J43" s="103" t="s">
+      <c r="J43" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="92"/>
-      <c r="L43" s="93"/>
+      <c r="K43" s="113"/>
+      <c r="L43" s="114"/>
     </row>
     <row r="44" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="95"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="118"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="107"/>
+      <c r="K44" s="115"/>
+      <c r="L44" s="116"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="58"/>
@@ -2033,452 +2118,452 @@
       <c r="L46" s="58"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="122"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="122"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="122"/>
-      <c r="J47" s="122"/>
-      <c r="K47" s="122"/>
-      <c r="L47" s="122"/>
+      <c r="A47" s="78"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="122"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="122"/>
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="122"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="122"/>
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="78"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="78"/>
+      <c r="L49" s="78"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="122"/>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="122"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="78"/>
+      <c r="L50" s="78"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="122"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="122"/>
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="78"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
-      <c r="B52" s="122"/>
-      <c r="C52" s="122"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="122"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="122"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="80"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="122"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="122"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="79"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="122"/>
+      <c r="A54" s="78"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="78"/>
+      <c r="L54" s="78"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="122"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="122"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="80"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
+      <c r="K55" s="78"/>
+      <c r="L55" s="78"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
+      <c r="A56" s="78"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="78"/>
+      <c r="K56" s="78"/>
+      <c r="L56" s="78"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="122"/>
+      <c r="A57" s="78"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="80"/>
+      <c r="H57" s="80"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="122"/>
+      <c r="A58" s="78"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="122"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="122"/>
+      <c r="A59" s="78"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="124"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="122"/>
+      <c r="A60" s="78"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="80"/>
+      <c r="H60" s="80"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="124"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="78"/>
+      <c r="K61" s="78"/>
+      <c r="L61" s="78"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="122"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="78"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="80"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="78"/>
+      <c r="L62" s="78"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="124"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="122"/>
+      <c r="A63" s="78"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="78"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="78"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="78"/>
+      <c r="L63" s="78"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="124"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="122"/>
+      <c r="A64" s="78"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="80"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="80"/>
+      <c r="H64" s="80"/>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="78"/>
+      <c r="L64" s="78"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="124"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="122"/>
+      <c r="A65" s="78"/>
+      <c r="B65" s="78"/>
+      <c r="C65" s="78"/>
+      <c r="D65" s="79"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="78"/>
+      <c r="L65" s="78"/>
     </row>
     <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="122"/>
-      <c r="B66" s="122"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="124"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="122"/>
+      <c r="A66" s="78"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="78"/>
+      <c r="D66" s="79"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
     </row>
     <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="122"/>
-      <c r="B67" s="122"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="123"/>
-      <c r="E67" s="124"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="124"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122"/>
-      <c r="L67" s="122"/>
+      <c r="A67" s="78"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="79"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="80"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
     </row>
     <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="122"/>
-      <c r="B68" s="122"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="123"/>
-      <c r="E68" s="124"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="124"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="122"/>
+      <c r="A68" s="78"/>
+      <c r="B68" s="78"/>
+      <c r="C68" s="78"/>
+      <c r="D68" s="79"/>
+      <c r="E68" s="80"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="80"/>
+      <c r="H68" s="80"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
+      <c r="L68" s="78"/>
     </row>
     <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="122"/>
-      <c r="B69" s="122"/>
-      <c r="C69" s="122"/>
-      <c r="D69" s="123"/>
-      <c r="E69" s="124"/>
-      <c r="F69" s="122"/>
-      <c r="G69" s="124"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="122"/>
+      <c r="A69" s="78"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="79"/>
+      <c r="E69" s="80"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="80"/>
+      <c r="H69" s="80"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="78"/>
+      <c r="L69" s="78"/>
     </row>
     <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
-      <c r="B70" s="122"/>
-      <c r="C70" s="122"/>
-      <c r="D70" s="123"/>
-      <c r="E70" s="124"/>
-      <c r="F70" s="122"/>
-      <c r="G70" s="124"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="122"/>
+      <c r="A70" s="78"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="79"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="78"/>
+      <c r="J70" s="78"/>
+      <c r="K70" s="78"/>
+      <c r="L70" s="78"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="122"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="123"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="122"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="122"/>
+      <c r="A71" s="78"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="79"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="78"/>
+      <c r="J71" s="78"/>
+      <c r="K71" s="78"/>
+      <c r="L71" s="78"/>
     </row>
     <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="122"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="122"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="124"/>
-      <c r="F72" s="122"/>
-      <c r="G72" s="124"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
-      <c r="L72" s="122"/>
+      <c r="A72" s="78"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="78"/>
+      <c r="D72" s="79"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="78"/>
+      <c r="J72" s="78"/>
+      <c r="K72" s="78"/>
+      <c r="L72" s="78"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="124"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="122"/>
-      <c r="L73" s="122"/>
+      <c r="A73" s="78"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="79"/>
+      <c r="E73" s="80"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="80"/>
+      <c r="H73" s="80"/>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="78"/>
+      <c r="L73" s="78"/>
     </row>
     <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="123"/>
-      <c r="E74" s="124"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="122"/>
-      <c r="L74" s="122"/>
+      <c r="A74" s="78"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="78"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="80"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="80"/>
+      <c r="H74" s="80"/>
+      <c r="I74" s="78"/>
+      <c r="J74" s="78"/>
+      <c r="K74" s="78"/>
+      <c r="L74" s="78"/>
     </row>
     <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
-      <c r="B75" s="122"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="123"/>
-      <c r="E75" s="124"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="122"/>
-      <c r="L75" s="122"/>
+      <c r="A75" s="78"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="78"/>
+      <c r="J75" s="78"/>
+      <c r="K75" s="78"/>
+      <c r="L75" s="78"/>
     </row>
     <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
-      <c r="B76" s="122"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="123"/>
-      <c r="E76" s="124"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="124"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="122"/>
+      <c r="A76" s="78"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
+      <c r="I76" s="78"/>
+      <c r="J76" s="78"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="78"/>
     </row>
     <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="122"/>
-      <c r="B77" s="122"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="123"/>
-      <c r="E77" s="124"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="124"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="122"/>
-      <c r="L77" s="122"/>
+      <c r="A77" s="78"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="79"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="80"/>
+      <c r="H77" s="80"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="78"/>
+      <c r="L77" s="78"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="122"/>
-      <c r="B78" s="122"/>
-      <c r="C78" s="122"/>
-      <c r="D78" s="123"/>
-      <c r="E78" s="124"/>
-      <c r="F78" s="122"/>
-      <c r="G78" s="124"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="122"/>
+      <c r="A78" s="78"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="79"/>
+      <c r="E78" s="80"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="80"/>
+      <c r="H78" s="80"/>
+      <c r="I78" s="78"/>
+      <c r="J78" s="78"/>
+      <c r="K78" s="78"/>
+      <c r="L78" s="78"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
@@ -13207,6 +13292,21 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="31">
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="I39:J42"/>
+    <mergeCell ref="F39:H42"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="K39:L44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="J12:L12"/>
@@ -13223,24 +13323,9 @@
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="C15:L15"/>
     <mergeCell ref="C16:L16"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="I39:J42"/>
-    <mergeCell ref="F39:H42"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="E38:E44"/>
-    <mergeCell ref="K39:L44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0" bottom="0.23622047244094491" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="87" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -33,13 +33,13 @@
     <t xml:space="preserve">MODE OF PROCUREMENT: </t>
   </si>
   <si>
-    <t>Shopping</t>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t>RFQ No. :</t>
   </si>
   <si>
-    <t>2021-0166</t>
+    <t>2021-0175</t>
   </si>
   <si>
     <t>Name of Procuring Entity:</t>
@@ -51,13 +51,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>July 08, 2021</t>
+    <t>July 23, 2021</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>FAD</t>
+    <t>LGCDD</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -108,10 +108,7 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 20,000.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief, General Services Division/Chief, General Services Section </t>
+    <t>PHP 70,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">ITEM NO. </t>
@@ -132,12 +129,13 @@
     <t>PRICE PER UNIT</t>
   </si>
   <si>
-    <t>Quality Policy Poster
-Size: A3 (11.7 x 16.5 inches)
-Stock: Kromekote 189# with matt lamination; 230 gsm 
-Orientation: Portrait 
-Print: Full color, 1 sided printing
-\nNOTE:
+    <t>One Year Subscription to Zoom with Large Meeting capacity of 1000pax
+Max Participants: 1000 pax
+Time Limit: 24 hours
+Security: Lock/Close Meeting
+Recording: 1 GB Clous
+Social media streaming
+NOTE:
   *In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
      1. Valid Business Permit 2021 ( Application for renewal with Official Receipt 2021) 
      2. Latest Income/Business Tax Return
@@ -152,7 +150,10 @@
          b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>70,000.00</t>
   </si>
   <si>
     <t>Warranty</t>
@@ -171,6 +172,9 @@
   </si>
   <si>
     <t>Tel. No./Cellphone No.</t>
+  </si>
+  <si>
+    <t>Chairman, BAC</t>
   </si>
 </sst>
 </file>
@@ -193,72 +197,85 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -390,7 +407,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -398,6 +417,30 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -406,7 +449,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -426,19 +471,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -458,23 +490,8 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -576,54 +593,180 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -645,194 +788,68 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,8 +1198,8 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,46 +1222,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1259,277 +1276,277 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="71" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="65" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="87"/>
+      <c r="H5" s="82"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="71" t="s">
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="65" t="s">
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="73" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="74"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="75" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="59" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="62" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="62" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="64"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="64"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="31"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -1537,11 +1554,11 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -1549,11 +1566,11 @@
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="96"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -1562,13 +1579,13 @@
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="99"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="53"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1577,107 +1594,109 @@
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="108"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="62"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="103"/>
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="109" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="111"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="112" t="s">
+      <c r="B29" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="114" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116" t="s">
+      <c r="H29" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="42" t="s">
+      <c r="I29" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="J29" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="44" t="s">
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="107"/>
+    </row>
+    <row r="31" spans="1:13" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="119">
+        <v>1</v>
+      </c>
+      <c r="B31" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="9"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="113"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="119"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="45"/>
-    </row>
-    <row r="31" spans="1:13" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88">
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="114">
         <v>1</v>
       </c>
-      <c r="B31" s="120" t="s">
+      <c r="H31" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="37">
-        <v>200</v>
-      </c>
-      <c r="H31" s="37" t="s">
+      <c r="I31" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="37">
-        <v>100</v>
-      </c>
-      <c r="J31" s="37"/>
+      <c r="J31" s="114">
+        <v>70</v>
+      </c>
       <c r="K31" s="34"/>
       <c r="L31" s="35"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="120"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
       <c r="L32" s="14">
         <f>I32*G32</f>
         <v>0</v>
@@ -1685,30 +1704,30 @@
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
       <c r="L33" s="14"/>
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
       <c r="L34" s="14">
         <f>I34*G34</f>
         <v>0</v>
@@ -1716,58 +1735,58 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
       <c r="L35" s="14"/>
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="120"/>
-      <c r="D36" s="120"/>
-      <c r="E36" s="120"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="120"/>
-      <c r="D37" s="120"/>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="A37" s="121"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
       <c r="L37" s="14"/>
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="120"/>
-      <c r="D38" s="120"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="A38" s="121"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
       <c r="L38" s="14">
         <f>I38*G38</f>
         <v>0</v>
@@ -1775,58 +1794,58 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="120"/>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="A39" s="121"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
       <c r="L39" s="14"/>
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="120"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
+      <c r="A40" s="121"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="120"/>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
       <c r="L41" s="14"/>
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
+      <c r="A42" s="121"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
     </row>
@@ -1850,10 +1869,10 @@
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="109"/>
       <c r="H44" s="21"/>
       <c r="I44" s="22"/>
       <c r="J44" s="12"/>
@@ -1871,30 +1890,30 @@
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:13" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="41"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="118"/>
     </row>
     <row r="47" spans="1:13" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="41"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
@@ -1915,11 +1934,11 @@
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="48" t="s">
+      <c r="G49" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,36 +1962,31 @@
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="36" t="s">
+      <c r="G51" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
       <c r="J51" s="27"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="50">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A23:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F16:J17"/>
-    <mergeCell ref="F18:J22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J31:J42"/>
+    <mergeCell ref="A46:J47"/>
+    <mergeCell ref="A31:A42"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="B31:F42"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G31:G42"/>
+    <mergeCell ref="H31:H42"/>
+    <mergeCell ref="I31:I42"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:J15"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="A10:D10"/>
@@ -1985,24 +1999,29 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:J15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="F18:J22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A23:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B31:F42"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G31:G42"/>
-    <mergeCell ref="H31:H42"/>
-    <mergeCell ref="I31:I42"/>
-    <mergeCell ref="J31:J42"/>
-    <mergeCell ref="A46:J47"/>
-    <mergeCell ref="A31:A42"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.59055118110236005" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -127,33 +127,6 @@
   </si>
   <si>
     <t>PRICE PER UNIT</t>
-  </si>
-  <si>
-    <t>One Year Subscription to Zoom with Large Meeting capacity of 1000pax
-Max Participants: 1000 pax
-Time Limit: 24 hours
-Security: Lock/Close Meeting
-Recording: 1 GB Clous
-Social media streaming
-NOTE:
-  *In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
-     1. Valid Business Permit 2021 ( Application for renewal with Official Receipt 2021) 
-     2. Latest Income/Business Tax Return
-     3. PhilGEPS Registration No. (Please indicate on the space provided above)
-     4. a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
-         b. Photocopy of ID bearing the pictures/ signature of the representatives. 
-     5. Notarized Omnibus Sworn Statement 
-   * Please submit your quotation using our official Request for Quotation (RFQ) Form. You can secure a copy of the 
-  RFQ from the General Services and Supply Section, Finance and Administrative Division.
-   *Please submit your quotation together with the Eligibility Documents through any of the following : 
-         a. Email us at dilg4a.bac@gmail.com
-         b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>70,000.00</t>
   </si>
   <si>
     <t>Warranty</t>
@@ -485,13 +458,17 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -593,12 +570,156 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,27 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -683,120 +783,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,47 +795,38 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -949,7 +926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -984,7 +961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1198,8 +1175,8 @@
   </sheetPr>
   <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,46 +1199,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1276,277 +1253,277 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="88" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="89"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="83"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="90" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="85"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="79" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91" t="s">
+      <c r="A11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="93"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="101" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="45" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="45" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="47"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="31"/>
       <c r="G23" s="32"/>
       <c r="H23" s="32"/>
@@ -1554,11 +1531,11 @@
       <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
       <c r="H24" s="32"/>
@@ -1566,11 +1543,11 @@
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -1579,13 +1556,13 @@
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="53"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1594,109 +1571,97 @@
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="62"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="103"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="65"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="104" t="s">
+      <c r="H29" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="104" t="s">
+      <c r="I29" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="106" t="s">
+      <c r="J29" s="109" t="s">
         <v>35</v>
       </c>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="107"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="119">
-        <v>1</v>
-      </c>
-      <c r="B31" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="112"/>
-      <c r="D31" s="112"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="114">
-        <v>1</v>
-      </c>
-      <c r="H31" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="114" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="114">
-        <v>70</v>
-      </c>
+      <c r="A31" s="113"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
       <c r="K31" s="34"/>
       <c r="L31" s="35"/>
       <c r="M31" s="15"/>
     </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="116"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="119"/>
+      <c r="H32" s="121"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
       <c r="L32" s="14">
         <f>I32*G32</f>
         <v>0</v>
@@ -1704,30 +1669,30 @@
       <c r="M32" s="15"/>
     </row>
     <row r="33" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="121"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="121"/>
       <c r="L33" s="14"/>
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="121"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="121"/>
       <c r="L34" s="14">
         <f>I34*G34</f>
         <v>0</v>
@@ -1735,58 +1700,58 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
       <c r="L35" s="14"/>
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
       <c r="L36" s="14"/>
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
       <c r="L37" s="14"/>
       <c r="M37" s="15"/>
     </row>
     <row r="38" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
       <c r="L38" s="14">
         <f>I38*G38</f>
         <v>0</v>
@@ -1794,58 +1759,58 @@
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
       <c r="L39" s="14"/>
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="121"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
+      <c r="F40" s="114"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
       <c r="L40" s="14"/>
       <c r="M40" s="15"/>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
       <c r="L41" s="14"/>
       <c r="M41" s="15"/>
     </row>
     <row r="42" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="121"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
       <c r="L42" s="14"/>
       <c r="M42" s="15"/>
     </row>
@@ -1863,16 +1828,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="20"/>
       <c r="E44" s="17"/>
-      <c r="F44" s="108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="109"/>
+      <c r="F44" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="40"/>
       <c r="H44" s="21"/>
       <c r="I44" s="22"/>
       <c r="J44" s="12"/>
@@ -1890,30 +1855,30 @@
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:13" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="118"/>
+      <c r="A46" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:13" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="116"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="117"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
@@ -1934,11 +1899,11 @@
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
+      <c r="G49" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1955,38 +1920,39 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
-      <c r="G51" s="113" t="s">
-        <v>44</v>
-      </c>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
+      <c r="G51" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
       <c r="J51" s="27"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="50">
-    <mergeCell ref="J31:J42"/>
-    <mergeCell ref="A46:J47"/>
-    <mergeCell ref="A31:A42"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B31:F42"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G31:G42"/>
-    <mergeCell ref="H31:H42"/>
-    <mergeCell ref="I31:I42"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:J15"/>
+  <mergeCells count="44">
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A23:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="A10:D10"/>
@@ -1999,12 +1965,12 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:J15"/>
     <mergeCell ref="F16:J17"/>
     <mergeCell ref="F18:J22"/>
     <mergeCell ref="A16:E16"/>
@@ -2012,16 +1978,9 @@
     <mergeCell ref="A19:E20"/>
     <mergeCell ref="A21:E22"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A23:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A46:J47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G49:I49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.59055118110236005" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -160,7 +160,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
     <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -238,12 +238,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -475,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -506,9 +500,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +561,234 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -587,246 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1173,10 +1152,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,21 +1178,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="74"/>
@@ -1224,21 +1203,21 @@
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
       <c r="I2" s="74"/>
-      <c r="J2" s="75"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1253,316 +1232,316 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="65" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="59" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="81"/>
+      <c r="H5" s="83"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="65" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="59" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="67" t="s">
+      <c r="H6" s="84"/>
+      <c r="I6" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="68"/>
+      <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="69" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="66"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="81"/>
     </row>
     <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="48"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="53" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="56" t="s">
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="56" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="94"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1571,388 +1550,225 @@
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="103"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="104" t="s">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="105"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="106"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="107" t="s">
+      <c r="H29" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="107" t="s">
+      <c r="I29" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="109" t="s">
+      <c r="J29" s="69" t="s">
         <v>35</v>
       </c>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="110"/>
+      <c r="A30" s="110"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="114"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="121"/>
-      <c r="L32" s="14">
-        <f>I32*G32</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="15"/>
-    </row>
-    <row r="33" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="114"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="121"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="121"/>
-      <c r="L34" s="14">
-        <f>I34*G34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="114"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="121"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="121"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="121"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="15"/>
-    </row>
-    <row r="37" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="119"/>
-      <c r="H37" s="121"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="121"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="15"/>
-    </row>
-    <row r="38" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="114"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="L38" s="14">
-        <f>I38*G38</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="15"/>
-    </row>
-    <row r="39" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="114"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="121"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="119"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="121"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="119"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="121"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="39" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="G44" s="40"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36" t="s">
+      <c r="G33" s="115"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" s="22" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="38"/>
-    </row>
-    <row r="47" spans="1:13" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="38"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="12"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="41" t="s">
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
+    </row>
+    <row r="36" spans="1:10" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="111"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="42" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="27"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="26"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A23:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:J15"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="F18:J22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A35:J36"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="A10:D10"/>
@@ -1965,22 +1781,22 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:J15"/>
-    <mergeCell ref="F16:J17"/>
-    <mergeCell ref="F18:J22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A46:J47"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A23:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.59055118110236005" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="RFQ Sample" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -27,7 +27,7 @@
     <t>DEPARTMENT OF THE INTERIOR AND LOCAL GOVERNMENT</t>
   </si>
   <si>
-    <t>(Address)</t>
+    <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway , Brgy. Parian, Calamba City, Laguna</t>
   </si>
   <si>
     <t xml:space="preserve">MODE OF PROCUREMENT: </t>
@@ -39,7 +39,7 @@
     <t>RFQ No. :</t>
   </si>
   <si>
-    <t>2021-0175</t>
+    <t>2021-0143</t>
   </si>
   <si>
     <t>Name of Procuring Entity:</t>
@@ -51,13 +51,13 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>July 23, 2021</t>
+    <t>June 17, 2021</t>
   </si>
   <si>
     <t>Office/End User:</t>
   </si>
   <si>
-    <t>LGCDD</t>
+    <t>LGMED</t>
   </si>
   <si>
     <t>Company Name:</t>
@@ -108,7 +108,13 @@
     <t>APPROVED BUDGET FOR THE CONTRACT (ABC):</t>
   </si>
   <si>
-    <t>PHP 70,000.00</t>
+    <t>PHP 21,750.00</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
+  </si>
+  <si>
+    <t>Chairman, BAC</t>
   </si>
   <si>
     <t xml:space="preserve">ITEM NO. </t>
@@ -145,9 +151,6 @@
   </si>
   <si>
     <t>Tel. No./Cellphone No.</t>
-  </si>
-  <si>
-    <t>Chairman, BAC</t>
   </si>
 </sst>
 </file>
@@ -157,10 +160,10 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,79 +173,72 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="3">
@@ -371,9 +367,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -381,44 +375,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -438,6 +395,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -445,6 +415,32 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -469,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -500,6 +496,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,251 +560,263 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,7 +916,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,7 +951,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,10 +1163,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,21 +1189,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="74"/>
@@ -1203,21 +1214,21 @@
       <c r="G2" s="74"/>
       <c r="H2" s="74"/>
       <c r="I2" s="74"/>
-      <c r="J2" s="45"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1232,316 +1243,316 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="80"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82" t="s">
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="83"/>
+      <c r="H5" s="81"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="80" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="80"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="82" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="89" t="s">
+      <c r="H6" s="60"/>
+      <c r="I6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="90"/>
+      <c r="J6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="91" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="80" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="81"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="103" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="107"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="46" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="46" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="32"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="30"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="54"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1550,210 +1561,397 @@
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="103"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="104" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="106"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42" t="s">
+      <c r="A29" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="B29" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="67" t="s">
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="69" t="s">
+      <c r="H29" s="107" t="s">
         <v>35</v>
       </c>
+      <c r="I29" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="109" t="s">
+        <v>37</v>
+      </c>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="110"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="70"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="110"/>
     </row>
     <row r="31" spans="1:13" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="114" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" s="22" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="111" t="s">
-        <v>38</v>
-      </c>
+      <c r="A31" s="115"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="115"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="120"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="115"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="115"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="116"/>
       <c r="B35" s="112"/>
       <c r="C35" s="112"/>
       <c r="D35" s="112"/>
       <c r="E35" s="112"/>
       <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
-    </row>
-    <row r="36" spans="1:10" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="111"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="121"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="121"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="117"/>
       <c r="B36" s="112"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
       <c r="E36" s="112"/>
       <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="113"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="116" t="s">
+      <c r="G36" s="119"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="121"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="117"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="121"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="121"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="117"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="117"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="121"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="117"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" s="13" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="117"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="117"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="121"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="121"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="G44" s="40"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" s="23" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="92" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="38"/>
+    </row>
+    <row r="47" spans="1:13" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="36"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="26"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="27"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="44">
-    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A23:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="G51:I51"/>
     <mergeCell ref="A11:J12"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:J13"/>
@@ -1766,37 +1964,9 @@
     <mergeCell ref="A19:E20"/>
     <mergeCell ref="A21:E22"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A35:J36"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A23:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A46:J47"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="G49:I49"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.23622047244093999" right="0.23622047244093999" top="0.59055118110236005" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>

--- a/library/export_rfq.xlsx
+++ b/library/export_rfq.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\fas2020\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D81B09-4972-4640-8051-44F7CC224C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFQ Sample" sheetId="1" r:id="rId1"/>
@@ -138,9 +139,27 @@
     <t>PRICE PER UNIT</t>
   </si>
   <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>Price Validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                         After having carefully read and accepted your General Conditions, I/WE quote on the item(s) at prices noted above.</t>
+  </si>
+  <si>
+    <t>Printed Name/Signature/Date</t>
+  </si>
+  <si>
+    <t>Revised Form 2012</t>
+  </si>
+  <si>
+    <t>Tel. No./Cellphone No.</t>
+  </si>
+  <si>
     <t>NOTE:
 *In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation the following Eligibility Documents:
-   1. Valid Business Permit 2021 ( Application for renewal with Official Receipt 2021) 
+   1. Valid Business Permit 2022 ( Application for renewal with Official Receipt 2022) 
    2. Latest Income/Business Tax Return
    3. PhilGEPS Registration No. (Please indicate on the space provided above)
    4. a. Any documents to prove that the signatory of the quotation is autorized representative of the company.
@@ -152,34 +171,16 @@
        a. Email us at dilg4a.bac@gmail.com
        b. Deliver on hand at the receiving area of DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
-  <si>
-    <t>Warranty</t>
-  </si>
-  <si>
-    <t>Price Validity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                         After having carefully read and accepted your General Conditions, I/WE quote on the item(s) at prices noted above.</t>
-  </si>
-  <si>
-    <t>Printed Name/Signature/Date</t>
-  </si>
-  <si>
-    <t>Revised Form 2012</t>
-  </si>
-  <si>
-    <t>Tel. No./Cellphone No.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00;[Red][$PHP]\ #,##0.00"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -610,7 +611,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -635,7 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -735,6 +736,129 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -774,15 +898,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -795,15 +910,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -822,22 +928,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -862,111 +968,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,6 +1107,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1141,6 +1159,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1316,7 +1351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
@@ -1324,71 +1359,71 @@
   <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+      <selection activeCell="D9" sqref="D9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="11.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="11.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="102"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="108"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1400,302 +1435,302 @@
       <c r="I4" s="3"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72" t="s">
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="70" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="107" t="s">
+      <c r="H6" s="65"/>
+      <c r="I6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="108"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="109" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="105" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="70" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="115"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="120" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="120" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="123" t="s">
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="90"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="92"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="77" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="77" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
-    </row>
-    <row r="19" spans="1:16" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77" t="s">
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="92"/>
+    </row>
+    <row r="19" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="92"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="92"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="77" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="82"/>
+    <row r="25" spans="1:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="115"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -1703,14 +1738,14 @@
       <c r="J25" s="18"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1718,75 +1753,75 @@
       <c r="J26" s="12"/>
       <c r="M26" s="9"/>
     </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="92" t="s">
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
       <c r="M27" s="9"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="95" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="124"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="126" t="s">
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="132"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76" t="s">
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="I29" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="100" t="s">
+      <c r="J29" s="81" t="s">
         <v>37</v>
       </c>
       <c r="M29" s="9"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="101"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="82"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="39"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -1804,7 +1839,7 @@
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="39"/>
       <c r="B32" s="40"/>
       <c r="C32" s="40"/>
@@ -1822,7 +1857,7 @@
       <c r="O32" s="24"/>
       <c r="P32" s="24"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="39"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -1840,7 +1875,7 @@
       <c r="O33" s="24"/>
       <c r="P33" s="24"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="39"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -1858,7 +1893,7 @@
       <c r="O34" s="24"/>
       <c r="P34" s="24"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="39"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -1876,7 +1911,7 @@
       <c r="O35" s="24"/>
       <c r="P35" s="24"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="39"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -1894,7 +1929,7 @@
       <c r="O36" s="24"/>
       <c r="P36" s="24"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="39"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -1912,7 +1947,7 @@
       <c r="O37" s="24"/>
       <c r="P37" s="24"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -1930,7 +1965,7 @@
       <c r="O38" s="24"/>
       <c r="P38" s="24"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="39"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -1948,7 +1983,7 @@
       <c r="O39" s="24"/>
       <c r="P39" s="24"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="39"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -1966,7 +2001,7 @@
       <c r="O40" s="24"/>
       <c r="P40" s="24"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -1984,7 +2019,7 @@
       <c r="O41" s="24"/>
       <c r="P41" s="24"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="39"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -2002,7 +2037,7 @@
       <c r="O42" s="24"/>
       <c r="P42" s="24"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="39"/>
       <c r="B43" s="40"/>
       <c r="C43" s="40"/>
@@ -2020,7 +2055,7 @@
       <c r="O43" s="24"/>
       <c r="P43" s="24"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="39"/>
       <c r="B44" s="40"/>
       <c r="C44" s="40"/>
@@ -2038,7 +2073,7 @@
       <c r="O44" s="24"/>
       <c r="P44" s="24"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="39"/>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -2056,7 +2091,7 @@
       <c r="O45" s="24"/>
       <c r="P45" s="24"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="39"/>
       <c r="B46" s="40"/>
       <c r="C46" s="40"/>
@@ -2074,7 +2109,7 @@
       <c r="O46" s="24"/>
       <c r="P46" s="24"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -2092,7 +2127,7 @@
       <c r="O47" s="24"/>
       <c r="P47" s="24"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="39"/>
       <c r="B48" s="40"/>
       <c r="C48" s="40"/>
@@ -2110,7 +2145,7 @@
       <c r="O48" s="24"/>
       <c r="P48" s="24"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="39"/>
       <c r="B49" s="40"/>
       <c r="C49" s="40"/>
@@ -2128,7 +2163,7 @@
       <c r="O49" s="24"/>
       <c r="P49" s="24"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="39"/>
       <c r="B50" s="40"/>
       <c r="C50" s="40"/>
@@ -2146,7 +2181,7 @@
       <c r="O50" s="24"/>
       <c r="P50" s="24"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="39"/>
       <c r="B51" s="40"/>
       <c r="C51" s="40"/>
@@ -2164,7 +2199,7 @@
       <c r="O51" s="24"/>
       <c r="P51" s="24"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="39"/>
       <c r="B52" s="40"/>
       <c r="C52" s="40"/>
@@ -2182,7 +2217,7 @@
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="39"/>
       <c r="B53" s="40"/>
       <c r="C53" s="40"/>
@@ -2200,7 +2235,7 @@
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="39"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -2218,7 +2253,7 @@
       <c r="O54" s="24"/>
       <c r="P54" s="24"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="39"/>
       <c r="B55" s="40"/>
       <c r="C55" s="40"/>
@@ -2236,7 +2271,7 @@
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="39"/>
       <c r="B56" s="40"/>
       <c r="C56" s="40"/>
@@ -2254,7 +2289,7 @@
       <c r="O56" s="24"/>
       <c r="P56" s="24"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="39"/>
       <c r="B57" s="40"/>
       <c r="C57" s="40"/>
@@ -2272,7 +2307,7 @@
       <c r="O57" s="24"/>
       <c r="P57" s="24"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="40"/>
       <c r="C58" s="40"/>
@@ -2290,7 +2325,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="24"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="40"/>
       <c r="C59" s="40"/>
@@ -2308,7 +2343,7 @@
       <c r="O59" s="24"/>
       <c r="P59" s="24"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="40"/>
       <c r="C60" s="40"/>
@@ -2326,7 +2361,7 @@
       <c r="O60" s="24"/>
       <c r="P60" s="24"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="40"/>
       <c r="C61" s="40"/>
@@ -2344,7 +2379,7 @@
       <c r="O61" s="24"/>
       <c r="P61" s="24"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
@@ -2362,7 +2397,7 @@
       <c r="O62" s="24"/>
       <c r="P62" s="24"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="40"/>
       <c r="C63" s="40"/>
@@ -2380,7 +2415,7 @@
       <c r="O63" s="24"/>
       <c r="P63" s="24"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
@@ -2398,7 +2433,7 @@
       <c r="O64" s="24"/>
       <c r="P64" s="24"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="40"/>
       <c r="C65" s="40"/>
@@ -2416,7 +2451,7 @@
       <c r="O65" s="24"/>
       <c r="P65" s="24"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="40"/>
       <c r="C66" s="40"/>
@@ -2434,7 +2469,7 @@
       <c r="O66" s="24"/>
       <c r="P66" s="24"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="40"/>
       <c r="C67" s="40"/>
@@ -2452,7 +2487,7 @@
       <c r="O67" s="24"/>
       <c r="P67" s="24"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="40"/>
       <c r="C68" s="40"/>
@@ -2470,7 +2505,7 @@
       <c r="O68" s="24"/>
       <c r="P68" s="24"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="40"/>
       <c r="C69" s="40"/>
@@ -2488,7 +2523,7 @@
       <c r="O69" s="24"/>
       <c r="P69" s="24"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="40"/>
       <c r="C70" s="40"/>
@@ -2506,7 +2541,7 @@
       <c r="O70" s="24"/>
       <c r="P70" s="24"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="40"/>
       <c r="C71" s="40"/>
@@ -2524,7 +2559,7 @@
       <c r="O71" s="24"/>
       <c r="P71" s="24"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="40"/>
       <c r="C72" s="40"/>
@@ -2542,7 +2577,7 @@
       <c r="O72" s="24"/>
       <c r="P72" s="24"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="40"/>
       <c r="C73" s="40"/>
@@ -2560,7 +2595,7 @@
       <c r="O73" s="24"/>
       <c r="P73" s="24"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="40"/>
       <c r="C74" s="40"/>
@@ -2578,7 +2613,7 @@
       <c r="O74" s="24"/>
       <c r="P74" s="24"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
@@ -2596,7 +2631,7 @@
       <c r="O75" s="24"/>
       <c r="P75" s="24"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -2614,7 +2649,7 @@
       <c r="O76" s="24"/>
       <c r="P76" s="24"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="40"/>
       <c r="C77" s="40"/>
@@ -2632,7 +2667,7 @@
       <c r="O77" s="24"/>
       <c r="P77" s="24"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="40"/>
       <c r="C78" s="40"/>
@@ -2650,7 +2685,7 @@
       <c r="O78" s="24"/>
       <c r="P78" s="24"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
       <c r="B79" s="40"/>
       <c r="C79" s="40"/>
@@ -2668,7 +2703,7 @@
       <c r="O79" s="24"/>
       <c r="P79" s="24"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="40"/>
       <c r="C80" s="40"/>
@@ -2686,7 +2721,7 @@
       <c r="O80" s="24"/>
       <c r="P80" s="24"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="40"/>
       <c r="C81" s="40"/>
@@ -2704,7 +2739,7 @@
       <c r="O81" s="24"/>
       <c r="P81" s="24"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="40"/>
       <c r="C82" s="40"/>
@@ -2722,7 +2757,7 @@
       <c r="O82" s="24"/>
       <c r="P82" s="24"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="40"/>
       <c r="C83" s="40"/>
@@ -2740,7 +2775,7 @@
       <c r="O83" s="24"/>
       <c r="P83" s="24"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
       <c r="B84" s="40"/>
       <c r="C84" s="40"/>
@@ -2758,7 +2793,7 @@
       <c r="O84" s="24"/>
       <c r="P84" s="24"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="40"/>
       <c r="C85" s="40"/>
@@ -2776,7 +2811,7 @@
       <c r="O85" s="24"/>
       <c r="P85" s="24"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="40"/>
       <c r="C86" s="40"/>
@@ -2794,7 +2829,7 @@
       <c r="O86" s="24"/>
       <c r="P86" s="24"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
       <c r="B87" s="40"/>
       <c r="C87" s="40"/>
@@ -2812,7 +2847,7 @@
       <c r="O87" s="24"/>
       <c r="P87" s="24"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
@@ -2830,7 +2865,7 @@
       <c r="O88" s="24"/>
       <c r="P88" s="24"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="40"/>
       <c r="C89" s="40"/>
@@ -2848,7 +2883,7 @@
       <c r="O89" s="24"/>
       <c r="P89" s="24"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="40"/>
       <c r="C90" s="40"/>
@@ -2866,7 +2901,7 @@
       <c r="O90" s="24"/>
       <c r="P90" s="24"/>
     </row>
-    <row r="91" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="31"/>
       <c r="C91" s="31"/>
@@ -2881,7 +2916,7 @@
       <c r="L91" s="23"/>
       <c r="M91" s="14"/>
     </row>
-    <row r="92" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="31"/>
       <c r="C92" s="31"/>
@@ -2896,7 +2931,7 @@
       <c r="L92" s="23"/>
       <c r="M92" s="14"/>
     </row>
-    <row r="93" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="42"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31"/>
@@ -2911,15 +2946,15 @@
       <c r="L93" s="23"/>
       <c r="M93" s="14"/>
     </row>
-    <row r="94" spans="1:16" s="13" customFormat="1" ht="349.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" s="13" customFormat="1" ht="349.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
-      <c r="B94" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
+      <c r="B94" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="99"/>
+      <c r="D94" s="99"/>
+      <c r="E94" s="99"/>
+      <c r="F94" s="99"/>
       <c r="G94" s="48"/>
       <c r="H94" s="49"/>
       <c r="I94" s="50"/>
@@ -2928,7 +2963,7 @@
       <c r="L94" s="23"/>
       <c r="M94" s="14"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="45"/>
@@ -2946,18 +2981,18 @@
       <c r="O95" s="24"/>
       <c r="P95" s="24"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="53"/>
       <c r="C96" s="53"/>
       <c r="D96" s="54"/>
       <c r="E96" s="26"/>
-      <c r="F96" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" s="129"/>
+      <c r="F96" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="58"/>
       <c r="H96" s="55"/>
       <c r="I96" s="56"/>
       <c r="J96" s="12"/>
@@ -2968,7 +3003,7 @@
       <c r="O96" s="24"/>
       <c r="P96" s="24"/>
     </row>
-    <row r="97" spans="1:16" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25"/>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -2980,31 +3015,31 @@
       <c r="I97" s="11"/>
       <c r="J97" s="12"/>
     </row>
-    <row r="98" spans="1:16" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="130" t="s">
-        <v>41</v>
-      </c>
-      <c r="B98" s="131"/>
-      <c r="C98" s="131"/>
-      <c r="D98" s="131"/>
-      <c r="E98" s="131"/>
-      <c r="F98" s="131"/>
-      <c r="G98" s="131"/>
-      <c r="H98" s="131"/>
-      <c r="I98" s="131"/>
-      <c r="J98" s="132"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="130"/>
-      <c r="B99" s="131"/>
-      <c r="C99" s="131"/>
-      <c r="D99" s="131"/>
-      <c r="E99" s="131"/>
-      <c r="F99" s="131"/>
-      <c r="G99" s="131"/>
-      <c r="H99" s="131"/>
-      <c r="I99" s="131"/>
-      <c r="J99" s="132"/>
+    <row r="98" spans="1:16" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="61"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="59"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
+      <c r="J99" s="61"/>
       <c r="K99" s="24"/>
       <c r="L99" s="24"/>
       <c r="M99" s="24"/>
@@ -3012,7 +3047,7 @@
       <c r="O99" s="24"/>
       <c r="P99" s="24"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="25"/>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -3030,18 +3065,18 @@
       <c r="O100" s="24"/>
       <c r="P100" s="24"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="25"/>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
-      <c r="G101" s="133" t="s">
-        <v>42</v>
-      </c>
-      <c r="H101" s="133"/>
-      <c r="I101" s="133"/>
+      <c r="G101" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
       <c r="J101" s="12"/>
       <c r="K101" s="24"/>
       <c r="L101" s="24"/>
@@ -3050,7 +3085,7 @@
       <c r="O101" s="24"/>
       <c r="P101" s="24"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="25"/>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
@@ -3068,53 +3103,26 @@
       <c r="O102" s="24"/>
       <c r="P102" s="24"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
       <c r="D103" s="29"/>
       <c r="E103" s="29"/>
       <c r="F103" s="29"/>
-      <c r="G103" s="134" t="s">
-        <v>44</v>
-      </c>
-      <c r="H103" s="134"/>
-      <c r="I103" s="134"/>
+      <c r="G103" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="H103" s="63"/>
+      <c r="I103" s="63"/>
       <c r="J103" s="30"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="45">
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="A98:J99"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:J15"/>
-    <mergeCell ref="F16:J17"/>
-    <mergeCell ref="F18:J22"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="I29:I30"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B94:F94"/>
     <mergeCell ref="A1:J1"/>
@@ -3131,7 +3139,34 @@
     <mergeCell ref="F27:J27"/>
     <mergeCell ref="F28:J28"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="F16:J17"/>
+    <mergeCell ref="F18:J22"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="A98:J99"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:J15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.59055118110236227" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
